--- a/jpcore-r4/feature/swg3-location/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg3-location/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T13:55:31+00:00</t>
+    <t>2022-09-21T23:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
